--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>line</t>
   </si>
@@ -145,13 +145,83 @@
   <si>
     <t>使用1次锁定</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_key|obj道具的key</t>
+  </si>
+  <si>
+    <t>obj_box_exchange_id|obj道具开启的id</t>
+  </si>
+  <si>
+    <t>prop_xrxsfl_15box</t>
+  </si>
+  <si>
+    <t>prop_xrxsfl_50box</t>
+  </si>
+  <si>
+    <t>prop_xrxsfl_10box</t>
+  </si>
+  <si>
+    <t>prop_xrxsfl_30box</t>
+  </si>
+  <si>
+    <t>prop_xrxsfl_cjq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrxsfl_cjq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift123_500jdk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_jbzk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_jbzk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +244,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -208,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +303,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -287,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,7 +618,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,7 +668,9 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -607,7 +693,9 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -973,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
@@ -1579,14 +1667,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1599,8 +1689,12 @@
       <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1619,8 +1713,12 @@
         <v>28</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3">
+        <v>75</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1638,8 +1736,9 @@
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1658,8 +1757,9 @@
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1678,8 +1778,9 @@
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1699,8 +1800,12 @@
         <v>32</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3">
+        <v>76</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1718,7 +1823,9 @@
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1738,7 +1845,9 @@
       <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1758,7 +1867,9 @@
       <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1779,8 +1890,12 @@
         <v>36</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3">
+        <v>77</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1798,7 +1913,9 @@
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1818,7 +1935,9 @@
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1838,7 +1957,9 @@
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1859,8 +1980,12 @@
         <v>38</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3">
+        <v>78</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1878,7 +2003,9 @@
       <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1898,7 +2025,9 @@
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1918,7 +2047,9 @@
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2014,6 +2145,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>line</t>
   </si>
@@ -173,19 +173,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift123_500jdk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_jbzk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_jbzk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_key|prop道具的key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_5_coupon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_5_coupon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>com_icon_yb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_15y</t>
+    <t>fish_coin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_czyhq1</t>
+    <t>jing_bi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_czyhq1</t>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift123_500jdk</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -193,28 +245,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hfsp</t>
+    <t>prop_hammer_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_icon_gift123_500jdk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_jbzk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_jbzk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>value|数量</t>
   </si>
 </sst>
 </file>
@@ -233,12 +268,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1665,21 +1702,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G1" sqref="G1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1690,13 +1728,17 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1704,8 +1746,9 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1713,14 +1756,16 @@
         <v>28</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>75</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1728,8 +1773,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1737,11 +1783,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>1000</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1749,8 +1799,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1758,11 +1809,15 @@
         <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1770,20 +1825,23 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1791,8 +1849,9 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1800,14 +1859,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>76</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1815,8 +1876,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1824,12 +1886,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1837,8 +1903,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1846,12 +1913,16 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1859,8 +1930,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1868,12 +1940,14 @@
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1881,8 +1955,9 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1890,14 +1965,16 @@
         <v>36</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>77</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1905,8 +1982,9 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1914,12 +1992,16 @@
         <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1000</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1927,8 +2009,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1936,12 +2019,16 @@
         <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1949,21 +2036,23 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1971,8 +2060,9 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1980,14 +2070,16 @@
         <v>38</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>78</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1995,8 +2087,9 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2004,12 +2097,16 @@
         <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2017,8 +2114,9 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2026,12 +2124,16 @@
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2039,8 +2141,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2048,12 +2151,14 @@
         <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2061,8 +2166,9 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2077,8 +2183,9 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2093,8 +2200,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2109,8 +2217,9 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2125,8 +2234,9 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2141,6 +2251,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -153,18 +153,6 @@
     <t>obj_box_exchange_id|obj道具开启的id</t>
   </si>
   <si>
-    <t>prop_xrxsfl_15box</t>
-  </si>
-  <si>
-    <t>prop_xrxsfl_50box</t>
-  </si>
-  <si>
-    <t>prop_xrxsfl_10box</t>
-  </si>
-  <si>
-    <t>prop_xrxsfl_30box</t>
-  </si>
-  <si>
     <t>prop_xrxsfl_cjq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -250,6 +238,18 @@
   </si>
   <si>
     <t>value|数量</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_15box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_50box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_10box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_30box</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1728,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>41</v>
@@ -1737,7 +1737,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1758,7 +1758,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
@@ -1783,10 +1783,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
@@ -1809,10 +1809,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
@@ -1861,7 +1861,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -1886,11 +1886,11 @@
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
@@ -1913,10 +1913,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1940,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -1967,7 +1967,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3">
         <v>77</v>
@@ -1992,10 +1992,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2019,10 +2019,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
@@ -2072,7 +2072,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F14" s="3">
         <v>78</v>
@@ -2097,10 +2097,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2124,10 +2124,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2151,7 +2151,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>

--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>line</t>
   </si>
@@ -193,14 +193,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>obj_5_coupon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_5_coupon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>com_icon_yb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -250,6 +242,10 @@
   </si>
   <si>
     <t>obj_xrxsfl_30box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_5_50box</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1705,7 +1701,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1737,7 +1733,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1758,7 +1754,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
@@ -1783,10 +1779,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
@@ -1812,7 +1808,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
@@ -1861,7 +1857,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -1886,11 +1882,11 @@
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
@@ -1916,7 +1912,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1940,7 +1936,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -1967,7 +1963,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3">
         <v>77</v>
@@ -1995,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2022,7 +2018,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2072,7 +2068,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3">
         <v>78</v>
@@ -2097,10 +2093,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2127,7 +2123,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>

--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>line</t>
   </si>
@@ -165,14 +165,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_czyhq1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -245,6 +237,34 @@
   </si>
   <si>
     <t>obj_xrxsfl_5_50box</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_hb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_hb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_10ylb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_15ylb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_30ylb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_50ylb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbzk_icon_jbzk</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1721,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1724,7 +1744,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>41</v>
@@ -1733,7 +1753,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1751,10 +1771,12 @@
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3">
         <v>75</v>
@@ -1779,10 +1801,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
@@ -1805,10 +1827,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
@@ -1830,9 +1852,12 @@
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C5" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
@@ -1854,10 +1879,12 @@
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -1882,11 +1909,11 @@
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
@@ -1909,10 +1936,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1936,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -1960,10 +1987,12 @@
       <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="3">
         <v>77</v>
@@ -1991,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2015,10 +2044,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2041,9 +2070,12 @@
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
@@ -2065,10 +2097,12 @@
       <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3">
         <v>78</v>
@@ -2093,10 +2127,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2120,10 +2154,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2147,7 +2181,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>

--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>line</t>
   </si>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>jbzk_icon_jbzk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_exchange_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,6 +685,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -699,7 +704,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -724,7 +731,9 @@
       <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5">
+        <v>43</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -749,7 +758,9 @@
       <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5">
+        <v>44</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1720,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -675,7 +675,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,7 +1790,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="3">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1843,7 +1843,9 @@
       <c r="E4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>86</v>
+      </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>62</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -2005,7 +2007,7 @@
         <v>63</v>
       </c>
       <c r="F10" s="3">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -2059,7 +2061,9 @@
       <c r="E12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>86</v>
+      </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>64</v>
       </c>
       <c r="F14" s="3">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>

--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>line</t>
   </si>
@@ -44,16 +44,7 @@
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-  </si>
-  <si>
     <t>7,8,9,10,11,12</t>
-  </si>
-  <si>
-    <t>9,10,11,12,13,14,15,16</t>
   </si>
   <si>
     <t>ID</t>
@@ -264,11 +255,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>jbzk_icon_jbzk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>activity_exchange_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_jbzk_icon_jbzk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_jbzk_icon_jbzk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,9,10,11,12,13,14,15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -674,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -726,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5">
         <v>43</v>
@@ -747,16 +754,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5">
         <v>44</v>
@@ -1138,16 +1145,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1168,10 +1175,10 @@
         <v>1000351</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1192,10 +1199,10 @@
         <v>1000352</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1216,10 +1223,10 @@
         <v>1000353</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1240,10 +1247,10 @@
         <v>1000354</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1264,10 +1271,10 @@
         <v>1000355</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1288,10 +1295,10 @@
         <v>1000356</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1312,10 +1319,10 @@
         <v>1000357</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1336,10 +1343,10 @@
         <v>1000358</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1360,10 +1367,10 @@
         <v>1000359</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1384,10 +1391,10 @@
         <v>1000360</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1408,10 +1415,10 @@
         <v>1000361</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1432,10 +1439,10 @@
         <v>1000362</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1731,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1746,25 +1753,25 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1780,14 +1787,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3">
         <v>82</v>
@@ -1809,13 +1816,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
@@ -1835,13 +1842,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3">
         <v>86</v>
@@ -1863,14 +1870,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
@@ -1890,14 +1897,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3">
         <v>83</v>
@@ -1919,13 +1926,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
@@ -1945,13 +1952,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1972,10 +1979,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -1997,14 +2004,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3">
         <v>84</v>
@@ -2026,13 +2033,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2053,13 +2060,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="3">
         <v>86</v>
@@ -2081,14 +2088,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
@@ -2108,14 +2115,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="3">
         <v>85</v>
@@ -2137,13 +2144,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2164,13 +2171,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2191,10 +2198,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>

--- a/config_3.9/act_xrxsfl_config.xlsx
+++ b/config_3.9/act_xrxsfl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1840,7 +1840,7 @@
       <c r="C4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="3"/>
@@ -1922,8 +1922,7 @@
       <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="3"/>
@@ -2057,10 +2056,9 @@
       <c r="C12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>1</v>
